--- a/results/synechocystis_sp_pcc_6803/Iron_depletion_oxidative_stress_Study/synechocystis_sp_pcc_6803_carbon_source_functional_composition.xlsx
+++ b/results/synechocystis_sp_pcc_6803/Iron_depletion_oxidative_stress_Study/synechocystis_sp_pcc_6803_carbon_source_functional_composition.xlsx
@@ -637,7 +637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -669,10 +669,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.718213058419244</v>
+        <v>1.446945337620579</v>
       </c>
       <c r="C2" t="n">
-        <v>1.657458563535912</v>
+        <v>1.986754966887417</v>
       </c>
     </row>
     <row r="3">
@@ -682,10 +682,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6872852233676976</v>
+        <v>0.8038585209003215</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5524861878453038</v>
+        <v>0.6622516556291391</v>
       </c>
     </row>
     <row r="4">
@@ -695,59 +695,59 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.436426116838488</v>
+        <v>2.733118971061093</v>
       </c>
       <c r="C4" t="n">
-        <v>7.734806629834254</v>
+        <v>9.271523178807946</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Biotin metabolism</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.1607717041800643</v>
       </c>
       <c r="C5" t="n">
-        <v>1.657458563535912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>C5-Branched dibasic acid metabolism</t>
+          <t>Biotin metabolism</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.859106529209622</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5524861878453038</v>
+        <v>1.986754966887417</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Carbon fixation</t>
+          <t>C5-Branched dibasic acid metabolism</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.202749140893471</v>
+        <v>0.482315112540193</v>
       </c>
       <c r="C7" t="n">
-        <v>1.104972375690608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Carotenoid Biosynthesis</t>
+          <t>Carbon fixation</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.202749140893471</v>
+        <v>0.964630225080386</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -756,11 +756,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Citrate cycle (TCA cycle)</t>
+          <t>Carotenoid Biosynthesis</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.202749140893471</v>
+        <v>2.090032154340836</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -769,11 +769,11 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Cyanophycin metabolism</t>
+          <t>Citrate cycle (TCA cycle)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3436426116838488</v>
+        <v>0.964630225080386</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -782,11 +782,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fatty acid biosynthesis</t>
+          <t>Cyanophycin metabolism</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.092783505154639</v>
+        <v>0.3215434083601286</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -795,427 +795,427 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Folate biosynthesis</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.061855670103093</v>
+        <v>3.054662379421222</v>
       </c>
       <c r="C12" t="n">
-        <v>1.104972375690608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Fructose and mannose metabolism</t>
+          <t>Fatty acid biosynthesis</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3436426116838488</v>
+        <v>16.39871382636656</v>
       </c>
       <c r="C13" t="n">
-        <v>6.629834254143646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Galactolipids metabolism</t>
+          <t>Folate biosynthesis</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3436426116838488</v>
+        <v>2.090032154340836</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.324503311258278</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Glutamate metabolism</t>
+          <t>Fructose and mannose metabolism</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.202749140893471</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1.657458563535912</v>
+        <v>5.298013245033113</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Glutathione metabolism</t>
+          <t>Galactolipids metabolism</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1718213058419244</v>
+        <v>4.340836012861737</v>
       </c>
       <c r="C16" t="n">
-        <v>1.657458563535912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Glycerolipid metabolism</t>
+          <t>Glutamate metabolism</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6872852233676976</v>
+        <v>1.12540192926045</v>
       </c>
       <c r="C17" t="n">
-        <v>2.209944751381215</v>
+        <v>0.6622516556291391</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Glutathione metabolism</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.951890034364261</v>
+        <v>0.1607717041800643</v>
       </c>
       <c r="C18" t="n">
-        <v>5.524861878453039</v>
+        <v>1.324503311258278</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Glyoxylate and dicarboxylate metabolism</t>
+          <t>Glycerolipid metabolism</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.092783505154639</v>
+        <v>0.6430868167202572</v>
       </c>
       <c r="C19" t="n">
-        <v>2.762430939226519</v>
+        <v>1.324503311258278</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Histidine metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.061855670103093</v>
+        <v>3.536977491961415</v>
       </c>
       <c r="C20" t="n">
-        <v>1.104972375690608</v>
+        <v>4.635761589403973</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production</t>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5154639175257731</v>
+        <v>2.411575562700965</v>
       </c>
       <c r="C21" t="n">
-        <v>2.762430939226519</v>
+        <v>1.324503311258278</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Inositol phosphate metabolism</t>
+          <t>Histidine metabolism</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1718213058419244</v>
+        <v>1.446945337620579</v>
       </c>
       <c r="C22" t="n">
-        <v>2.762430939226519</v>
+        <v>1.324503311258278</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide biosynthesis</t>
+          <t>Hydrogen production</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.859106529209622</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>0.6622516556291391</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Lysine metabolism</t>
+          <t>Inositol phosphate metabolism</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.374570446735395</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.104972375690608</v>
+        <v>1.324503311258278</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Nicotinate and nicotinamide metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.859106529209622</v>
+        <v>0.1607717041800643</v>
       </c>
       <c r="C25" t="n">
-        <v>1.104972375690608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Nitrogen metabolism</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.233676975945017</v>
+        <v>0.1607717041800643</v>
       </c>
       <c r="C26" t="n">
-        <v>1.104972375690608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Nucleotide sugars metabolism</t>
+          <t>Lipopolysaccharide biosynthesis</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.8038585209003215</v>
       </c>
       <c r="C27" t="n">
-        <v>3.314917127071823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Lysine metabolism</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.5154639175257731</v>
+        <v>1.446945337620579</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5524861878453038</v>
+        <v>1.324503311258278</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Oxidative phosphorylation</t>
+          <t>Nicotinate and nicotinamide metabolism</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>10.99656357388316</v>
+        <v>0.6430868167202572</v>
       </c>
       <c r="C29" t="n">
-        <v>8.287292817679557</v>
+        <v>1.324503311258278</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>PHB byosynthesis</t>
+          <t>Nitrogen metabolism</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1.768488745980707</v>
       </c>
       <c r="C30" t="n">
-        <v>2.209944751381215</v>
+        <v>0.6622516556291391</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Pantothenate and CoA biosynthesis</t>
+          <t>Nucleotide sugars metabolism</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.54639175257732</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>2.649006622516556</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Pentose phosphate pathway</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.718213058419244</v>
+        <v>0.6430868167202572</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5524861878453038</v>
+        <v>1.324503311258278</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Peptidoglycan biosynthesis</t>
+          <t>Oxidative phosphorylation</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.54639175257732</v>
+        <v>0.964630225080386</v>
       </c>
       <c r="C33" t="n">
-        <v>0.5524861878453038</v>
+        <v>2.649006622516556</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
+          <t>PHB byosynthesis</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.123711340206185</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>6.077348066298343</v>
+        <v>1.986754966887417</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Photosynthesis</t>
+          <t>Pantothenate and CoA biosynthesis</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>14.7766323024055</v>
+        <v>1.446945337620579</v>
       </c>
       <c r="C35" t="n">
-        <v>4.41988950276243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Porphyrin and chlorophyll metabolism</t>
+          <t>Pentose phosphate pathway</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7.560137457044673</v>
+        <v>1.768488745980707</v>
       </c>
       <c r="C36" t="n">
-        <v>5.524861878453039</v>
+        <v>0.6622516556291391</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Purine metabolism</t>
+          <t>Peptidoglycan biosynthesis</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5.498281786941581</v>
+        <v>1.286173633440514</v>
       </c>
       <c r="C37" t="n">
-        <v>6.629834254143646</v>
+        <v>0.6622516556291391</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Pyrimidine metabolism</t>
+          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.951890034364261</v>
+        <v>3.054662379421222</v>
       </c>
       <c r="C38" t="n">
-        <v>3.314917127071823</v>
+        <v>5.298013245033113</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Pyruvate metabolism</t>
+          <t>Photosynthesis</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.951890034364261</v>
+        <v>1.929260450160772</v>
       </c>
       <c r="C39" t="n">
-        <v>1.104972375690608</v>
+        <v>0.6622516556291391</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Riboflavin metabolism</t>
+          <t>Porphyrin and chlorophyll metabolism</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.202749140893471</v>
+        <v>6.591639871382636</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5524861878453038</v>
+        <v>4.635761589403973</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Starch and sucrose metabolism</t>
+          <t>Purine metabolism</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.202749140893471</v>
+        <v>4.823151125401929</v>
       </c>
       <c r="C41" t="n">
-        <v>2.762430939226519</v>
+        <v>5.298013245033113</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Steroid biosynthesis</t>
+          <t>Pyrimidine metabolism</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>4.180064308681672</v>
       </c>
       <c r="C42" t="n">
-        <v>1.104972375690608</v>
+        <v>2.649006622516556</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Sterol biosynthesis</t>
+          <t>Pyruvate metabolism</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.859106529209622</v>
+        <v>2.2508038585209</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>0.6622516556291391</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Sulfolipid Biosynthesis</t>
+          <t>Riboflavin metabolism</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.3436426116838488</v>
+        <v>1.607717041800643</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1224,105 +1224,157 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Sulfur Cysteine and methionine metabolism</t>
+          <t>Starch and sucrose metabolism</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.405498281786942</v>
+        <v>0.964630225080386</v>
       </c>
       <c r="C45" t="n">
-        <v>2.762430939226519</v>
+        <v>3.311258278145695</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Terpenoid backbone biosynthesis</t>
+          <t>Steroid biosynthesis</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.202749140893471</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1.986754966887417</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Thiamine metabolism</t>
+          <t>Sterol biosynthesis</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>0.964630225080386</v>
       </c>
       <c r="C47" t="n">
-        <v>2.209944751381215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Sulfolipid Biosynthesis</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>14.94845360824742</v>
+        <v>1.607717041800643</v>
       </c>
       <c r="C48" t="n">
-        <v>22.09944751381216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+          <t>Sulfur Cysteine and methionine metabolism</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1.890034364261168</v>
+        <v>2.2508038585209</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>3.311258278145695</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Urea cycle and metabolism of amino groups</t>
+          <t>Terpenoid backbone biosynthesis</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1.202749140893471</v>
+        <v>1.446945337620579</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5524861878453038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Valine leucine and isoleucine biosynthesis</t>
+          <t>Thiamine metabolism</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1.718213058419244</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>2.762430939226519</v>
+        <v>3.311258278145695</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
+          <t>Transport</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>6.752411575562702</v>
+      </c>
+      <c r="C52" t="n">
+        <v>15.89403973509934</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2.2508038585209</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Urea cycle and metabolism of amino groups</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1.12540192926045</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.6622516556291391</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Valine leucine and isoleucine biosynthesis</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1.929260450160772</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2.649006622516556</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
           <t>Vitamin B6 metabolism</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1.104972375690608</v>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>3.311258278145695</v>
       </c>
     </row>
   </sheetData>
@@ -1368,10 +1420,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.081081081081081</v>
+        <v>1.083032490974729</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8</v>
+        <v>0.819672131147541</v>
       </c>
     </row>
     <row r="3">
@@ -1381,7 +1433,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.621621621621622</v>
+        <v>1.624548736462094</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1394,10 +1446,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.927927927927928</v>
+        <v>7.942238267148015</v>
       </c>
       <c r="C4" t="n">
-        <v>7.199999999999999</v>
+        <v>7.377049180327869</v>
       </c>
     </row>
     <row r="5">
@@ -1407,10 +1459,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.387387387387387</v>
+        <v>7.40072202166065</v>
       </c>
       <c r="C5" t="n">
-        <v>10.4</v>
+        <v>10.65573770491803</v>
       </c>
     </row>
     <row r="6">
@@ -1433,10 +1485,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.702702702702703</v>
+        <v>2.707581227436823</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>4.098360655737705</v>
       </c>
     </row>
     <row r="8">
@@ -1446,7 +1498,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.621621621621621</v>
+        <v>1.624548736462094</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1459,10 +1511,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9009009009009009</v>
+        <v>0.9025270758122743</v>
       </c>
       <c r="C9" t="n">
-        <v>1.6</v>
+        <v>1.639344262295082</v>
       </c>
     </row>
     <row r="10">
@@ -1472,10 +1524,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.49549549549549</v>
+        <v>15.52346570397112</v>
       </c>
       <c r="C10" t="n">
-        <v>4.8</v>
+        <v>4.918032786885246</v>
       </c>
     </row>
     <row r="11">
@@ -1485,7 +1537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7207207207207207</v>
+        <v>0.7220216606498195</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1498,7 +1550,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7207207207207207</v>
+        <v>0.7220216606498195</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1511,10 +1563,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.081081081081081</v>
+        <v>1.083032490974729</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8</v>
+        <v>0.819672131147541</v>
       </c>
     </row>
     <row r="14">
@@ -1524,10 +1576,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.243243243243243</v>
+        <v>3.249097472924187</v>
       </c>
       <c r="C14" t="n">
-        <v>3.2</v>
+        <v>3.278688524590164</v>
       </c>
     </row>
   </sheetData>
@@ -1541,7 +1593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1573,10 +1625,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.801801801801802</v>
+        <v>1.54639175257732</v>
       </c>
       <c r="C2" t="n">
-        <v>2.4</v>
+        <v>2.678571428571428</v>
       </c>
     </row>
     <row r="3">
@@ -1586,10 +1638,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7207207207207207</v>
+        <v>0.859106529209622</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8</v>
+        <v>0.8928571428571428</v>
       </c>
     </row>
     <row r="4">
@@ -1599,59 +1651,59 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.063063063063063</v>
+        <v>2.233676975945017</v>
       </c>
       <c r="C4" t="n">
-        <v>9.6</v>
+        <v>8.928571428571429</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Biotin metabolism</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.1718213058419244</v>
       </c>
       <c r="C5" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>C5-Branched dibasic acid metabolism</t>
+          <t>Biotin metabolism</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9009009009009009</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8</v>
+        <v>1.785714285714286</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Carbon fixation</t>
+          <t>C5-Branched dibasic acid metabolism</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.261261261261261</v>
+        <v>0.5154639175257731</v>
       </c>
       <c r="C7" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Carotenoid Biosynthesis</t>
+          <t>Carbon fixation</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.261261261261261</v>
+        <v>1.030927835051546</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1660,11 +1712,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Citrate cycle (TCA cycle)</t>
+          <t>Carotenoid Biosynthesis</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.261261261261261</v>
+        <v>2.233676975945017</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1673,180 +1725,180 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Cyanophycin metabolism</t>
+          <t>Citrate cycle (TCA cycle)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1.030927835051546</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fatty acid biosynthesis</t>
+          <t>Cyanophycin metabolism</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.243243243243243</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.8928571428571428</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Folate biosynthesis</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.162162162162162</v>
+        <v>3.436426116838488</v>
       </c>
       <c r="C12" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Fructose and mannose metabolism</t>
+          <t>Fatty acid biosynthesis</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3603603603603603</v>
+        <v>17.52577319587629</v>
       </c>
       <c r="C13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Galactolipids metabolism</t>
+          <t>Folate biosynthesis</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3603603603603603</v>
+        <v>2.233676975945017</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.785714285714286</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Glutamate metabolism</t>
+          <t>Fructose and mannose metabolism</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.261261261261261</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Glutathione metabolism</t>
+          <t>Galactolipids metabolism</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>4.639175257731959</v>
       </c>
       <c r="C16" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Glycerolipid metabolism</t>
+          <t>Glutamate metabolism</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3603603603603603</v>
+        <v>1.202749140893471</v>
       </c>
       <c r="C17" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Glutathione metabolism</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.783783783783784</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>3.2</v>
+        <v>2.678571428571428</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Glyoxylate and dicarboxylate metabolism</t>
+          <t>Glycerolipid metabolism</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.882882882882883</v>
+        <v>0.1718213058419244</v>
       </c>
       <c r="C19" t="n">
-        <v>4.8</v>
+        <v>1.785714285714286</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Histidine metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.162162162162162</v>
+        <v>2.577319587628866</v>
       </c>
       <c r="C20" t="n">
-        <v>1.6</v>
+        <v>3.571428571428571</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production</t>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5405405405405406</v>
+        <v>1.890034364261168</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>2.678571428571428</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Inositol phosphate metabolism</t>
+          <t>Histidine metabolism</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1801801801801802</v>
+        <v>1.54639175257732</v>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>0.8928571428571428</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide biosynthesis</t>
+          <t>Hydrogen production</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9009009009009009</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1855,154 +1907,154 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Lysine metabolism</t>
+          <t>Inositol phosphate metabolism</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.441441441441441</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.6</v>
+        <v>1.785714285714286</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Nicotinate and nicotinamide metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9009009009009009</v>
+        <v>0.1718213058419244</v>
       </c>
       <c r="C25" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Nitrogen metabolism</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.801801801801802</v>
+        <v>0.1718213058419244</v>
       </c>
       <c r="C26" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Nucleotide sugars metabolism</t>
+          <t>Lipopolysaccharide biosynthesis</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.859106529209622</v>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Lysine metabolism</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.5405405405405406</v>
+        <v>1.54639175257732</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8</v>
+        <v>1.785714285714286</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Oxidative phosphorylation</t>
+          <t>Nicotinate and nicotinamide metabolism</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>12.07207207207207</v>
+        <v>0.6872852233676976</v>
       </c>
       <c r="C29" t="n">
-        <v>3.2</v>
+        <v>1.785714285714286</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>PHB byosynthesis</t>
+          <t>Nitrogen metabolism</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1.54639175257732</v>
       </c>
       <c r="C30" t="n">
-        <v>3.2</v>
+        <v>0.8928571428571428</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Pantothenate and CoA biosynthesis</t>
+          <t>Nucleotide sugars metabolism</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.621621621621622</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>2.678571428571428</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Pentose phosphate pathway</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.261261261261261</v>
+        <v>0.6872852233676976</v>
       </c>
       <c r="C32" t="n">
-        <v>2.4</v>
+        <v>1.785714285714286</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Peptidoglycan biosynthesis</t>
+          <t>Oxidative phosphorylation</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.621621621621622</v>
+        <v>1.030927835051546</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>0.8928571428571428</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
+          <t>PHB byosynthesis</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.144144144144144</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>6.4</v>
+        <v>2.678571428571428</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Photosynthesis</t>
+          <t>Pantothenate and CoA biosynthesis</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>14.05405405405405</v>
+        <v>1.54639175257732</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -2011,115 +2063,115 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Porphyrin and chlorophyll metabolism</t>
+          <t>Pentose phosphate pathway</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7.927927927927928</v>
+        <v>1.202749140893471</v>
       </c>
       <c r="C36" t="n">
-        <v>8</v>
+        <v>2.678571428571428</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Purine metabolism</t>
+          <t>Peptidoglycan biosynthesis</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5.405405405405405</v>
+        <v>1.374570446735395</v>
       </c>
       <c r="C37" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Pyrimidine metabolism</t>
+          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.423423423423423</v>
+        <v>3.264604810996564</v>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>4.464285714285714</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Pyruvate metabolism</t>
+          <t>Photosynthesis</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.963963963963964</v>
+        <v>1.718213058419244</v>
       </c>
       <c r="C39" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Riboflavin metabolism</t>
+          <t>Porphyrin and chlorophyll metabolism</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.081081081081081</v>
+        <v>7.0446735395189</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Starch and sucrose metabolism</t>
+          <t>Purine metabolism</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.261261261261261</v>
+        <v>4.29553264604811</v>
       </c>
       <c r="C41" t="n">
-        <v>3.2</v>
+        <v>7.142857142857142</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Steroid biosynthesis</t>
+          <t>Pyrimidine metabolism</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>3.264604810996564</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8</v>
+        <v>3.571428571428571</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Sterol biosynthesis</t>
+          <t>Pyruvate metabolism</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.9009009009009009</v>
+        <v>2.405498281786942</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>0.8928571428571428</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Sulfolipid Biosynthesis</t>
+          <t>Riboflavin metabolism</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.3603603603603603</v>
+        <v>1.54639175257732</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -2128,105 +2180,157 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Sulfur Cysteine and methionine metabolism</t>
+          <t>Starch and sucrose metabolism</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.522522522522523</v>
+        <v>1.030927835051546</v>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2.678571428571428</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Terpenoid backbone biosynthesis</t>
+          <t>Steroid biosynthesis</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.261261261261261</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>0.8928571428571428</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Thiamine metabolism</t>
+          <t>Sterol biosynthesis</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1.030927835051546</v>
       </c>
       <c r="C47" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Sulfolipid Biosynthesis</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>16.21621621621622</v>
+        <v>1.718213058419244</v>
       </c>
       <c r="C48" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+          <t>Sulfur Cysteine and methionine metabolism</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1.981981981981982</v>
+        <v>2.405498281786942</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>2.678571428571428</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Urea cycle and metabolism of amino groups</t>
+          <t>Terpenoid backbone biosynthesis</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1.261261261261261</v>
+        <v>1.54639175257732</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Valine leucine and isoleucine biosynthesis</t>
+          <t>Thiamine metabolism</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1.801801801801802</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2.678571428571428</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
+          <t>Transport</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>7.38831615120275</v>
+      </c>
+      <c r="C52" t="n">
+        <v>8.035714285714286</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2.405498281786942</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Urea cycle and metabolism of amino groups</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1.202749140893471</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.8928571428571428</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Valine leucine and isoleucine biosynthesis</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2.061855670103093</v>
+      </c>
+      <c r="C55" t="n">
+        <v>3.571428571428571</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
           <t>Vitamin B6 metabolism</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1.6</v>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4.464285714285714</v>
       </c>
     </row>
   </sheetData>
@@ -2272,10 +2376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.211072664359861</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8130081300813009</v>
+        <v>0.847457627118644</v>
       </c>
     </row>
     <row r="3">
@@ -2285,7 +2389,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.557093425605536</v>
+        <v>1.578947368421053</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2298,10 +2402,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.958477508650519</v>
+        <v>8.070175438596491</v>
       </c>
       <c r="C4" t="n">
-        <v>8.130081300813007</v>
+        <v>7.627118644067797</v>
       </c>
     </row>
     <row r="5">
@@ -2311,10 +2415,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.26643598615917</v>
+        <v>7.017543859649123</v>
       </c>
       <c r="C5" t="n">
-        <v>9.756097560975611</v>
+        <v>10.16949152542373</v>
       </c>
     </row>
     <row r="6">
@@ -2324,7 +2428,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1730103806228374</v>
+        <v>0.1754385964912281</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -2337,10 +2441,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.941176470588235</v>
+        <v>2.807017543859649</v>
       </c>
       <c r="C7" t="n">
-        <v>4.065040650406504</v>
+        <v>4.23728813559322</v>
       </c>
     </row>
     <row r="8">
@@ -2350,7 +2454,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.730103806228374</v>
+        <v>1.754385964912281</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -2363,10 +2467,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.038062283737024</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8130081300813009</v>
+        <v>0.847457627118644</v>
       </c>
     </row>
     <row r="10">
@@ -2376,10 +2480,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.7439446366782</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="C10" t="n">
-        <v>8.130081300813009</v>
+        <v>8.474576271186441</v>
       </c>
     </row>
     <row r="11">
@@ -2389,7 +2493,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6920415224913495</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -2402,7 +2506,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6920415224913495</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2415,10 +2519,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.038062283737024</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8130081300813009</v>
+        <v>0.847457627118644</v>
       </c>
     </row>
     <row r="14">
@@ -2428,10 +2532,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.28719723183391</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="C14" t="n">
-        <v>1.626016260162602</v>
+        <v>1.694915254237288</v>
       </c>
     </row>
   </sheetData>
@@ -2445,7 +2549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2477,10 +2581,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.730103806228374</v>
+        <v>1.535836177474403</v>
       </c>
       <c r="C2" t="n">
-        <v>1.626016260162602</v>
+        <v>1.041666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -2490,7 +2594,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6920415224913495</v>
+        <v>0.8532423208191127</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2503,59 +2607,59 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.28719723183391</v>
+        <v>2.218430034129693</v>
       </c>
       <c r="C4" t="n">
-        <v>7.317073170731707</v>
+        <v>8.333333333333332</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Biotin metabolism</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.1706484641638225</v>
       </c>
       <c r="C5" t="n">
-        <v>1.626016260162602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>C5-Branched dibasic acid metabolism</t>
+          <t>Biotin metabolism</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8650519031141869</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8130081300813009</v>
+        <v>2.083333333333333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Carbon fixation</t>
+          <t>C5-Branched dibasic acid metabolism</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.211072664359861</v>
+        <v>0.5119453924914675</v>
       </c>
       <c r="C7" t="n">
-        <v>1.626016260162602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Carotenoid Biosynthesis</t>
+          <t>Carbon fixation</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.211072664359861</v>
+        <v>0.8532423208191127</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -2564,11 +2668,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Citrate cycle (TCA cycle)</t>
+          <t>Carotenoid Biosynthesis</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.211072664359861</v>
+        <v>2.218430034129693</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -2577,11 +2681,11 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Cyanophycin metabolism</t>
+          <t>Citrate cycle (TCA cycle)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3460207612456748</v>
+        <v>1.023890784982935</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -2590,440 +2694,440 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fatty acid biosynthesis</t>
+          <t>Cyanophycin metabolism</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.941176470588235</v>
+        <v>0.3412969283276451</v>
       </c>
       <c r="C11" t="n">
-        <v>2.439024390243902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Folate biosynthesis</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.076124567474048</v>
+        <v>3.242320819112628</v>
       </c>
       <c r="C12" t="n">
-        <v>1.626016260162602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Fructose and mannose metabolism</t>
+          <t>Fatty acid biosynthesis</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3460207612456748</v>
+        <v>17.06484641638225</v>
       </c>
       <c r="C13" t="n">
-        <v>8.943089430894309</v>
+        <v>1.041666666666667</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Galactolipids metabolism</t>
+          <t>Folate biosynthesis</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3460207612456748</v>
+        <v>2.218430034129693</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>2.083333333333333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Glutamate metabolism</t>
+          <t>Fructose and mannose metabolism</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.211072664359861</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>7.291666666666667</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Glutathione metabolism</t>
+          <t>Galactolipids metabolism</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>4.607508532423208</v>
       </c>
       <c r="C16" t="n">
-        <v>2.439024390243902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Glycerolipid metabolism</t>
+          <t>Glutamate metabolism</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6920415224913495</v>
+        <v>1.194539249146758</v>
       </c>
       <c r="C17" t="n">
-        <v>3.252032520325204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Glutathione metabolism</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.806228373702422</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>4.878048780487805</v>
+        <v>2.083333333333333</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Glyoxylate and dicarboxylate metabolism</t>
+          <t>Glycerolipid metabolism</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.59515570934256</v>
+        <v>0.6825938566552902</v>
       </c>
       <c r="C19" t="n">
-        <v>2.439024390243902</v>
+        <v>2.083333333333333</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Histidine metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.076124567474048</v>
+        <v>2.559726962457338</v>
       </c>
       <c r="C20" t="n">
-        <v>1.626016260162602</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production</t>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5190311418685121</v>
+        <v>1.706484641638225</v>
       </c>
       <c r="C21" t="n">
-        <v>4.065040650406504</v>
+        <v>1.041666666666667</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Inositol phosphate metabolism</t>
+          <t>Histidine metabolism</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1730103806228374</v>
+        <v>1.535836177474403</v>
       </c>
       <c r="C22" t="n">
-        <v>4.065040650406504</v>
+        <v>1.041666666666667</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide biosynthesis</t>
+          <t>Hydrogen production</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8650519031141869</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1.041666666666667</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Lysine metabolism</t>
+          <t>Inositol phosphate metabolism</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.384083044982699</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.626016260162602</v>
+        <v>2.083333333333333</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Nicotinate and nicotinamide metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.211072664359861</v>
+        <v>0.1706484641638225</v>
       </c>
       <c r="C25" t="n">
-        <v>1.626016260162602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Nitrogen metabolism</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.076124567474048</v>
+        <v>0.1706484641638225</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8130081300813009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Nucleotide sugars metabolism</t>
+          <t>Lipopolysaccharide biosynthesis</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.8532423208191127</v>
       </c>
       <c r="C27" t="n">
-        <v>2.439024390243902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Lysine metabolism</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.5190311418685121</v>
+        <v>1.535836177474403</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8130081300813009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Oxidative phosphorylation</t>
+          <t>Nicotinate and nicotinamide metabolism</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>12.11072664359862</v>
+        <v>0.8532423208191127</v>
       </c>
       <c r="C29" t="n">
-        <v>14.63414634146341</v>
+        <v>2.083333333333333</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>PHB byosynthesis</t>
+          <t>Nitrogen metabolism</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1.706484641638225</v>
       </c>
       <c r="C30" t="n">
-        <v>1.626016260162602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Pantothenate and CoA biosynthesis</t>
+          <t>Nucleotide sugars metabolism</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.557093425605536</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>2.083333333333333</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Pentose phosphate pathway</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.211072664359861</v>
+        <v>0.6825938566552902</v>
       </c>
       <c r="C32" t="n">
-        <v>2.439024390243902</v>
+        <v>2.083333333333333</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Peptidoglycan biosynthesis</t>
+          <t>Oxidative phosphorylation</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.557093425605536</v>
+        <v>1.194539249146758</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>5.208333333333334</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
+          <t>PHB byosynthesis</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.152249134948097</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>6.504065040650407</v>
+        <v>1.041666666666667</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Photosynthesis</t>
+          <t>Pantothenate and CoA biosynthesis</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>15.05190311418685</v>
+        <v>1.535836177474403</v>
       </c>
       <c r="C35" t="n">
-        <v>8.943089430894309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Porphyrin and chlorophyll metabolism</t>
+          <t>Pentose phosphate pathway</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7.612456747404845</v>
+        <v>1.194539249146758</v>
       </c>
       <c r="C36" t="n">
-        <v>7.317073170731707</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Purine metabolism</t>
+          <t>Peptidoglycan biosynthesis</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5.536332179930796</v>
+        <v>1.36518771331058</v>
       </c>
       <c r="C37" t="n">
-        <v>8.943089430894309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Pyrimidine metabolism</t>
+          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.28719723183391</v>
+        <v>3.242320819112628</v>
       </c>
       <c r="C38" t="n">
-        <v>2.439024390243902</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Pyruvate metabolism</t>
+          <t>Photosynthesis</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.97923875432526</v>
+        <v>2.04778156996587</v>
       </c>
       <c r="C39" t="n">
-        <v>0.8130081300813009</v>
+        <v>1.041666666666667</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Riboflavin metabolism</t>
+          <t>Porphyrin and chlorophyll metabolism</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.211072664359861</v>
+        <v>6.996587030716723</v>
       </c>
       <c r="C40" t="n">
-        <v>0.8130081300813009</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Starch and sucrose metabolism</t>
+          <t>Purine metabolism</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.211072664359861</v>
+        <v>4.266211604095563</v>
       </c>
       <c r="C41" t="n">
-        <v>4.065040650406504</v>
+        <v>8.333333333333332</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Steroid biosynthesis</t>
+          <t>Pyrimidine metabolism</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>3.412969283276451</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8130081300813009</v>
+        <v>2.083333333333333</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Sterol biosynthesis</t>
+          <t>Pyruvate metabolism</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.8650519031141869</v>
+        <v>2.389078498293515</v>
       </c>
       <c r="C43" t="n">
-        <v>0.8130081300813009</v>
+        <v>1.041666666666667</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Sulfolipid Biosynthesis</t>
+          <t>Riboflavin metabolism</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.3460207612456748</v>
+        <v>1.535836177474403</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3032,76 +3136,76 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Sulfur Cysteine and methionine metabolism</t>
+          <t>Starch and sucrose metabolism</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.422145328719723</v>
+        <v>1.023890784982935</v>
       </c>
       <c r="C45" t="n">
-        <v>3.252032520325204</v>
+        <v>5.208333333333334</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Terpenoid backbone biosynthesis</t>
+          <t>Steroid biosynthesis</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.211072664359861</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>2.083333333333333</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Thiamine metabolism</t>
+          <t>Sterol biosynthesis</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1.023890784982935</v>
       </c>
       <c r="C47" t="n">
-        <v>1.626016260162602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Sulfolipid Biosynthesis</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>16.26297577854671</v>
+        <v>1.706484641638225</v>
       </c>
       <c r="C48" t="n">
-        <v>13.82113821138211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+          <t>Sulfur Cysteine and methionine metabolism</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1.903114186851211</v>
+        <v>2.389078498293515</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>4.166666666666666</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Urea cycle and metabolism of amino groups</t>
+          <t>Terpenoid backbone biosynthesis</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1.211072664359861</v>
+        <v>1.535836177474403</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -3110,26 +3214,78 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Valine leucine and isoleucine biosynthesis</t>
+          <t>Thiamine metabolism</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1.730103806228374</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>1.626016260162602</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
+          <t>Transport</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>6.996587030716723</v>
+      </c>
+      <c r="C52" t="n">
+        <v>9.375</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2.389078498293515</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Urea cycle and metabolism of amino groups</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1.194539249146758</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Valine leucine and isoleucine biosynthesis</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2.04778156996587</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.041666666666667</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
           <t>Vitamin B6 metabolism</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" t="n">
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3176,10 +3332,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.077199281867145</v>
+        <v>1.081081081081081</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>1.020408163265306</v>
       </c>
     </row>
     <row r="3">
@@ -3189,7 +3345,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.615798922800718</v>
+        <v>1.621621621621622</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -3202,10 +3358,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.078994614003591</v>
+        <v>8.108108108108109</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>9.183673469387756</v>
       </c>
     </row>
     <row r="5">
@@ -3215,10 +3371,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.18132854578097</v>
+        <v>7.207207207207207</v>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>12.24489795918367</v>
       </c>
     </row>
     <row r="6">
@@ -3241,10 +3397,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.692998204667863</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>8.163265306122449</v>
       </c>
     </row>
     <row r="8">
@@ -3254,7 +3410,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.615798922800718</v>
+        <v>1.621621621621621</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -3267,10 +3423,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.077199281867145</v>
+        <v>1.081081081081081</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>3.061224489795918</v>
       </c>
     </row>
     <row r="10">
@@ -3280,10 +3436,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.43985637342908</v>
+        <v>15.49549549549549</v>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>7.142857142857142</v>
       </c>
     </row>
     <row r="11">
@@ -3293,7 +3449,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7181328545780969</v>
+        <v>0.7207207207207207</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -3306,7 +3462,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7181328545780969</v>
+        <v>0.7207207207207207</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -3319,7 +3475,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.077199281867145</v>
+        <v>1.081081081081081</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -3332,10 +3488,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.231597845601436</v>
+        <v>3.243243243243243</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1.020408163265306</v>
       </c>
     </row>
   </sheetData>
@@ -3349,7 +3505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3381,10 +3537,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.795332136445242</v>
+        <v>1.565217391304348</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>1.282051282051282</v>
       </c>
     </row>
     <row r="3">
@@ -3394,7 +3550,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7181328545780969</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -3407,59 +3563,59 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.052064631956912</v>
+        <v>2.086956521739131</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>8.974358974358974</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Biotin metabolism</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>C5-Branched dibasic acid metabolism</t>
+          <t>Biotin metabolism</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8976660682226212</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2.564102564102564</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Carbon fixation</t>
+          <t>C5-Branched dibasic acid metabolism</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.25673249551167</v>
+        <v>0.5217391304347827</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Carotenoid Biosynthesis</t>
+          <t>Carbon fixation</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.25673249551167</v>
+        <v>1.043478260869565</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -3468,11 +3624,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Citrate cycle (TCA cycle)</t>
+          <t>Carotenoid Biosynthesis</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.25673249551167</v>
+        <v>1.913043478260869</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -3481,63 +3637,63 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Cyanophycin metabolism</t>
+          <t>Citrate cycle (TCA cycle)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3590664272890485</v>
+        <v>1.043478260869565</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fatty acid biosynthesis</t>
+          <t>Cyanophycin metabolism</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.052064631956912</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>1.282051282051282</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Folate biosynthesis</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.154398563734291</v>
+        <v>3.304347826086956</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Fructose and mannose metabolism</t>
+          <t>Fatty acid biosynthesis</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3590664272890485</v>
+        <v>17.39130434782609</v>
       </c>
       <c r="C13" t="n">
-        <v>10</v>
+        <v>1.282051282051282</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Galactolipids metabolism</t>
+          <t>Folate biosynthesis</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3590664272890485</v>
+        <v>2.260869565217392</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -3546,388 +3702,388 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Glutamate metabolism</t>
+          <t>Fructose and mannose metabolism</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.25673249551167</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>6.41025641025641</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Glutathione metabolism</t>
+          <t>Galactolipids metabolism</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>4.695652173913043</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Glycerolipid metabolism</t>
+          <t>Glutamate metabolism</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.7181328545780969</v>
+        <v>1.217391304347826</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Glutathione metabolism</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.770197486535009</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>1.282051282051282</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Glyoxylate and dicarboxylate metabolism</t>
+          <t>Glycerolipid metabolism</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.872531418312388</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>2.564102564102564</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Histidine metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.154398563734291</v>
+        <v>2.608695652173913</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>2.564102564102564</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production</t>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5385996409335727</v>
+        <v>1.913043478260869</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3.846153846153846</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Inositol phosphate metabolism</t>
+          <t>Histidine metabolism</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1795332136445242</v>
+        <v>1.565217391304348</v>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>1.282051282051282</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide biosynthesis</t>
+          <t>Hydrogen production</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8976660682226212</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1.282051282051282</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Lysine metabolism</t>
+          <t>Inositol phosphate metabolism</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.436265709156194</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>2.564102564102564</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Nicotinate and nicotinamide metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.25673249551167</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Nitrogen metabolism</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.795332136445242</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Nucleotide sugars metabolism</t>
+          <t>Lipopolysaccharide biosynthesis</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Lysine metabolism</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.5385996409335727</v>
+        <v>1.565217391304348</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Oxidative phosphorylation</t>
+          <t>Nicotinate and nicotinamide metabolism</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>11.49012567324955</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="C29" t="n">
-        <v>9</v>
+        <v>2.564102564102564</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>PHB byosynthesis</t>
+          <t>Nitrogen metabolism</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1.565217391304348</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>1.282051282051282</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Pantothenate and CoA biosynthesis</t>
+          <t>Nucleotide sugars metabolism</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.615798922800718</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1.282051282051282</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Pentose phosphate pathway</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.25673249551167</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>2.564102564102564</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Peptidoglycan biosynthesis</t>
+          <t>Oxidative phosphorylation</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.615798922800718</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>2.564102564102564</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
+          <t>PHB byosynthesis</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.308797127468582</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>7.000000000000001</v>
+        <v>1.282051282051282</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Photosynthesis</t>
+          <t>Pantothenate and CoA biosynthesis</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>14.36265709156194</v>
+        <v>1.565217391304348</v>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Porphyrin and chlorophyll metabolism</t>
+          <t>Pentose phosphate pathway</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7.899461400359066</v>
+        <v>1.217391304347826</v>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>1.282051282051282</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Purine metabolism</t>
+          <t>Peptidoglycan biosynthesis</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5.745062836624776</v>
+        <v>1.391304347826087</v>
       </c>
       <c r="C37" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Pyrimidine metabolism</t>
+          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.872531418312388</v>
+        <v>3.304347826086956</v>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5.128205128205128</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Pyruvate metabolism</t>
+          <t>Photosynthesis</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4.129263913824058</v>
+        <v>1.739130434782609</v>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Riboflavin metabolism</t>
+          <t>Porphyrin and chlorophyll metabolism</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.25673249551167</v>
+        <v>7.130434782608695</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>3.846153846153846</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Starch and sucrose metabolism</t>
+          <t>Purine metabolism</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.077199281867145</v>
+        <v>4.173913043478262</v>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>8.974358974358974</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Steroid biosynthesis</t>
+          <t>Pyrimidine metabolism</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>3.304347826086956</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>3.846153846153846</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Sterol biosynthesis</t>
+          <t>Pyruvate metabolism</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.8976660682226212</v>
+        <v>2.434782608695652</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>5.128205128205128</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Sulfolipid Biosynthesis</t>
+          <t>Riboflavin metabolism</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.3590664272890485</v>
+        <v>1.565217391304348</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3936,37 +4092,37 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Sulfur Cysteine and methionine metabolism</t>
+          <t>Starch and sucrose metabolism</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.513464991023339</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5.128205128205128</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Terpenoid backbone biosynthesis</t>
+          <t>Steroid biosynthesis</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.25673249551167</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>2.564102564102564</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Thiamine metabolism</t>
+          <t>Sterol biosynthesis</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1.043478260869565</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -3975,37 +4131,37 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Sulfolipid Biosynthesis</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>15.61938958707361</v>
+        <v>1.739130434782609</v>
       </c>
       <c r="C48" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+          <t>Sulfur Cysteine and methionine metabolism</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1.974865350089767</v>
+        <v>2.434782608695652</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>3.846153846153846</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Urea cycle and metabolism of amino groups</t>
+          <t>Terpenoid backbone biosynthesis</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1.25673249551167</v>
+        <v>1.565217391304348</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -4014,27 +4170,79 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Valine leucine and isoleucine biosynthesis</t>
+          <t>Thiamine metabolism</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1.795332136445242</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
+          <t>Transport</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>6.956521739130435</v>
+      </c>
+      <c r="C52" t="n">
+        <v>8.974358974358974</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2.434782608695652</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Urea cycle and metabolism of amino groups</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1.217391304347826</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Valine leucine and isoleucine biosynthesis</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2.086956521739131</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.282051282051282</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
           <t>Vitamin B6 metabolism</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1</v>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1.282051282051282</v>
       </c>
     </row>
   </sheetData>
